--- a/data/trans_orig/P04D$aparatos-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>175349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>156526</v>
+        <v>159323</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>191849</v>
+        <v>193074</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5985870133142235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5343306050848673</v>
+        <v>0.5438777823471393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6549125330909916</v>
+        <v>0.6590943060959663</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>137</v>
@@ -764,19 +764,19 @@
         <v>157650</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139357</v>
+        <v>139776</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>174444</v>
+        <v>173685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5509920918801893</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4870581857970721</v>
+        <v>0.4885210364258341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6096868139422927</v>
+        <v>0.6070342513976068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>302</v>
@@ -785,19 +785,19 @@
         <v>332999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>310237</v>
+        <v>306563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>358534</v>
+        <v>355312</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5750697985194116</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5357611204281699</v>
+        <v>0.5294155967747691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6191664215802374</v>
+        <v>0.6136016015275854</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>7438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2891</v>
+        <v>3044</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15492</v>
+        <v>16122</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02539103690721207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009869592679347353</v>
+        <v>0.01039057906618649</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05288610414216443</v>
+        <v>0.05503527947144804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>3092</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8477</v>
+        <v>8029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01080522447103162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003383648223416674</v>
+        <v>0.003374482590444488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02962789533554973</v>
+        <v>0.02806144210168611</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -856,19 +856,19 @@
         <v>10530</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5124</v>
+        <v>5424</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19442</v>
+        <v>19556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01818401410554803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008847979402881012</v>
+        <v>0.009366884008316841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03357437910730255</v>
+        <v>0.033772221866687</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>67865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53739</v>
+        <v>53915</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83787</v>
+        <v>83427</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2316683981021717</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.183449137446984</v>
+        <v>0.1840491024150915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2860226705614586</v>
+        <v>0.2847924821762487</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -906,19 +906,19 @@
         <v>70402</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57102</v>
+        <v>56271</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>87318</v>
+        <v>86193</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2460583331938949</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1995744899384177</v>
+        <v>0.1966683093867758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3051781103916021</v>
+        <v>0.3012475105906551</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>133</v>
@@ -927,19 +927,19 @@
         <v>138267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117107</v>
+        <v>116271</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>158296</v>
+        <v>160302</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2387786355863219</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2022373663170772</v>
+        <v>0.2007929937350584</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2733680678789863</v>
+        <v>0.2768314472795038</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>42287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31327</v>
+        <v>30196</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55842</v>
+        <v>55341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1443535516763927</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.106938657099461</v>
+        <v>0.103077810814266</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1906279189761428</v>
+        <v>0.1889168632168002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -977,19 +977,19 @@
         <v>54976</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41233</v>
+        <v>41609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69764</v>
+        <v>69322</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1921443504548843</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1441115789597154</v>
+        <v>0.1454249975870189</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2438274972058442</v>
+        <v>0.2422830852321741</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -998,19 +998,19 @@
         <v>97263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79119</v>
+        <v>79221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117306</v>
+        <v>116499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1679675517887184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1366330388927527</v>
+        <v>0.1368093352004028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2025800784926819</v>
+        <v>0.2011869965106546</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>342585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>318843</v>
+        <v>318917</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363535</v>
+        <v>363763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6802729989639489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6331283408169422</v>
+        <v>0.6332756325635247</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7218735317239848</v>
+        <v>0.7223269721735017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>331</v>
@@ -1052,19 +1052,19 @@
         <v>362840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342343</v>
+        <v>339118</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>384234</v>
+        <v>386276</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6955538191439444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6562620984995381</v>
+        <v>0.6500793401662013</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.73656503163537</v>
+        <v>0.7404812703035681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>650</v>
@@ -1073,19 +1073,19 @@
         <v>705425</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673779</v>
+        <v>672315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733759</v>
+        <v>733176</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6880479718118833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6571816208508841</v>
+        <v>0.6557537706345399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7156839918283224</v>
+        <v>0.7151161556199688</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>14861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8789</v>
+        <v>8430</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24992</v>
+        <v>24178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02950980997135302</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01745179804250881</v>
+        <v>0.01673863042919212</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04962639546131797</v>
+        <v>0.04801037142876366</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1123,19 +1123,19 @@
         <v>14385</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7460</v>
+        <v>7960</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23637</v>
+        <v>23570</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02757546736465195</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01430002151532518</v>
+        <v>0.01525853829514036</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04531097091202269</v>
+        <v>0.04518281880091445</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -1144,19 +1144,19 @@
         <v>29246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20292</v>
+        <v>19537</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41660</v>
+        <v>41280</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02852560486530826</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01979186060472978</v>
+        <v>0.01905547590643569</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04063351580231992</v>
+        <v>0.0402635419334471</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>105016</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87889</v>
+        <v>86518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126968</v>
+        <v>125943</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2085316696371128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1745215493365044</v>
+        <v>0.1717989033290776</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2521208912876707</v>
+        <v>0.2500853424277404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1194,19 +1194,19 @@
         <v>99540</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83526</v>
+        <v>82198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118276</v>
+        <v>118623</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1908145377748688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1601168870759621</v>
+        <v>0.1575708987141614</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2267317649234163</v>
+        <v>0.2273966488804566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -1215,19 +1215,19 @@
         <v>204556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>179728</v>
+        <v>180268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>233030</v>
+        <v>230402</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1995170868104297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1753006663055895</v>
+        <v>0.1758278494322499</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.227290193887448</v>
+        <v>0.2247269983243041</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>41137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29323</v>
+        <v>28798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56718</v>
+        <v>55180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08168552142758528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05822740767788787</v>
+        <v>0.05718500828726318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1126247952474206</v>
+        <v>0.1095706874662019</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -1265,19 +1265,19 @@
         <v>44892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33020</v>
+        <v>31791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61455</v>
+        <v>58203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08605617571653484</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06329746783572515</v>
+        <v>0.0609431963250128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1178067196004858</v>
+        <v>0.1115735227228225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -1286,19 +1286,19 @@
         <v>86028</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>68725</v>
+        <v>68260</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>108547</v>
+        <v>107148</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08390933651237878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06703229033127762</v>
+        <v>0.06657858581068944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1058735408153035</v>
+        <v>0.1045083111210905</v>
       </c>
     </row>
     <row r="12">
@@ -1319,19 +1319,19 @@
         <v>244482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>229162</v>
+        <v>227582</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>259785</v>
+        <v>259881</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7544681701971381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7071899555311226</v>
+        <v>0.7023152650464657</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8016925034197088</v>
+        <v>0.8019891971399279</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>249</v>
@@ -1340,19 +1340,19 @@
         <v>269176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>251103</v>
+        <v>252440</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283296</v>
+        <v>282986</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.789326258288075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7363288077950689</v>
+        <v>0.740249317127317</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8307314262369594</v>
+        <v>0.8298230520013518</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>489</v>
@@ -1361,19 +1361,19 @@
         <v>513658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>493666</v>
+        <v>490202</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>536812</v>
+        <v>535527</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7723420433547625</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7422808315124237</v>
+        <v>0.7370723763511395</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8071557637566287</v>
+        <v>0.805223424637482</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>4804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1867</v>
+        <v>996</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10854</v>
+        <v>9762</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01482421101201348</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005762105889672675</v>
+        <v>0.003073562608783843</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03349572011185536</v>
+        <v>0.0301239482725258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1411,19 +1411,19 @@
         <v>4934</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12041</v>
+        <v>12758</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01446847248348846</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00315532979783016</v>
+        <v>0.003179355868643126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03530906594243215</v>
+        <v>0.03741094179539767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1432,19 +1432,19 @@
         <v>9738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4040</v>
+        <v>4922</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18358</v>
+        <v>19464</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01464180211685123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006074922537280775</v>
+        <v>0.007401309298318206</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02760388002016473</v>
+        <v>0.02926614620522617</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>71913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58017</v>
+        <v>57308</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87539</v>
+        <v>88420</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2219232097745709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1790393065694683</v>
+        <v>0.1768524183530034</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2701441946730738</v>
+        <v>0.2728610090365663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1482,19 +1482,19 @@
         <v>63727</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50129</v>
+        <v>50879</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79952</v>
+        <v>79471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1868708470851665</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1469969267229839</v>
+        <v>0.149196657865177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2344506253056228</v>
+        <v>0.2330398281853047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>132</v>
@@ -1503,19 +1503,19 @@
         <v>135640</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114278</v>
+        <v>115596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154241</v>
+        <v>158755</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2039497201514164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1718300176793818</v>
+        <v>0.1738109610391672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2319180254396224</v>
+        <v>0.2387057924178531</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>2847</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8489</v>
+        <v>7523</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008784409016277505</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002889487342411377</v>
+        <v>0.002873518815155057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02619579700913217</v>
+        <v>0.02321653686456782</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1553,19 +1553,19 @@
         <v>3183</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8490</v>
+        <v>8605</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009334422143269983</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>0.002838349534567073</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02489451277738432</v>
+        <v>0.02523249497104443</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1574,19 +1574,19 @@
         <v>6030</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2858</v>
+        <v>2844</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13243</v>
+        <v>12969</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009066434376969848</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.004296988414942456</v>
+        <v>0.004276058533231346</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01991171082952066</v>
+        <v>0.01950028223737568</v>
       </c>
     </row>
     <row r="16">
@@ -1607,19 +1607,19 @@
         <v>219199</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198952</v>
+        <v>201470</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>238889</v>
+        <v>240400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5876387469346944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5333602265726957</v>
+        <v>0.5401081962496834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6404225573893977</v>
+        <v>0.6444736030293284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>229</v>
@@ -1628,19 +1628,19 @@
         <v>241790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221804</v>
+        <v>221963</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260843</v>
+        <v>259988</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6216467247222113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5702621314889227</v>
+        <v>0.5706714677059721</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6706315004730967</v>
+        <v>0.668434354573323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>433</v>
@@ -1649,19 +1649,19 @@
         <v>460989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>431923</v>
+        <v>433649</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>488977</v>
+        <v>489200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6049983225716581</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5668513637917614</v>
+        <v>0.5691167190851126</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6417288933790288</v>
+        <v>0.6420219245267178</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>21540</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13969</v>
+        <v>13408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32018</v>
+        <v>31028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05774537302369326</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03744796850217948</v>
+        <v>0.03594427723640879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08583390198087054</v>
+        <v>0.08318074642550168</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1699,19 +1699,19 @@
         <v>13660</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7745</v>
+        <v>7749</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21912</v>
+        <v>22334</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03511885286620513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01991258002112183</v>
+        <v>0.01992278437139248</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05633651476512097</v>
+        <v>0.05742143006061119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1720,19 +1720,19 @@
         <v>35200</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25368</v>
+        <v>24783</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>48622</v>
+        <v>48204</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04619553049764404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03329209908894189</v>
+        <v>0.03252498204573804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06381122181974692</v>
+        <v>0.06326283952015478</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>121821</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102568</v>
+        <v>102651</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>141509</v>
+        <v>139749</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3265839802051606</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2749687737709792</v>
+        <v>0.2751905022195989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3793627526579976</v>
+        <v>0.3746464212687156</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -1770,19 +1770,19 @@
         <v>123250</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>104694</v>
+        <v>105636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>141701</v>
+        <v>143033</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3168780231726074</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2691712164232096</v>
+        <v>0.2715910403327978</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3643170138151649</v>
+        <v>0.367740199081701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>229</v>
@@ -1791,19 +1791,19 @@
         <v>245071</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>220670</v>
+        <v>219983</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>274548</v>
+        <v>271851</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3216295163940964</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2896057869451952</v>
+        <v>0.2887034346024682</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3603146669736433</v>
+        <v>0.3567754120728263</v>
       </c>
     </row>
     <row r="19">
@@ -1820,19 +1820,19 @@
         <v>10456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4172</v>
+        <v>4299</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22243</v>
+        <v>19807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02803189983645177</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01118556732145594</v>
+        <v>0.01152414784330064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05962879223422795</v>
+        <v>0.05310039369230912</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1841,19 +1841,19 @@
         <v>10251</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5941</v>
+        <v>5371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18766</v>
+        <v>18803</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02635639923897614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01527478027752741</v>
+        <v>0.0138079855994019</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04824743444154062</v>
+        <v>0.04834207502692757</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1862,19 +1862,19 @@
         <v>20708</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12293</v>
+        <v>12624</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34351</v>
+        <v>32725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02717663053660141</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01613274677784226</v>
+        <v>0.01656714450433983</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04508192310654745</v>
+        <v>0.04294752987974155</v>
       </c>
     </row>
     <row r="20">
@@ -1895,19 +1895,19 @@
         <v>131756</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>115734</v>
+        <v>116363</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145513</v>
+        <v>146442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6196818257740559</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5443292236425763</v>
+        <v>0.54728738272949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6843854899941295</v>
+        <v>0.6887546583634662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -1916,19 +1916,19 @@
         <v>116241</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100273</v>
+        <v>99886</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131156</v>
+        <v>129229</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5293545699091607</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4566347446865318</v>
+        <v>0.4548731509724258</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5972750921845665</v>
+        <v>0.5884965521529172</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -1937,19 +1937,19 @@
         <v>247997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226953</v>
+        <v>227619</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>269880</v>
+        <v>269741</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5737895592177249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5250994276053002</v>
+        <v>0.5266421381145299</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.624421183993188</v>
+        <v>0.624098433448143</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>24602</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16278</v>
+        <v>15005</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35909</v>
+        <v>34435</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1157112429766136</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07656057537192903</v>
+        <v>0.0705717389647989</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1688901430483513</v>
+        <v>0.1619585923618074</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -1987,19 +1987,19 @@
         <v>26962</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18212</v>
+        <v>17601</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>39090</v>
+        <v>39140</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1227849501035895</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08293535935091745</v>
+        <v>0.08015551280183039</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1780124215801087</v>
+        <v>0.1782409766220836</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>48</v>
@@ -2008,19 +2008,19 @@
         <v>51565</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39353</v>
+        <v>37940</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66592</v>
+        <v>66086</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1193051576804783</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09105167692717038</v>
+        <v>0.08778075109821583</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1540727703144817</v>
+        <v>0.1529031956587112</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>46741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33610</v>
+        <v>35521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>60022</v>
+        <v>60717</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2198337589564751</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1580763293080591</v>
+        <v>0.1670649397621703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2822991285988373</v>
+        <v>0.2855679142729666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -2058,19 +2058,19 @@
         <v>64106</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51788</v>
+        <v>50729</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79739</v>
+        <v>78498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2919342521150555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2358398039178506</v>
+        <v>0.2310166712488034</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3631264862749476</v>
+        <v>0.3574728918997187</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2079,19 +2079,19 @@
         <v>110847</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91742</v>
+        <v>92084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128680</v>
+        <v>131128</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2564656151907178</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2122637731251602</v>
+        <v>0.2130542229376583</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.297727463229367</v>
+        <v>0.3033899334385816</v>
       </c>
     </row>
     <row r="23">
@@ -2108,19 +2108,19 @@
         <v>9520</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4252</v>
+        <v>4339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16875</v>
+        <v>17454</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04477317229285535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01999608389793302</v>
+        <v>0.0204066147517182</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07936705030411272</v>
+        <v>0.08209239120100204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2129,19 +2129,19 @@
         <v>12281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7066</v>
+        <v>6234</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21525</v>
+        <v>20695</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0559262278721942</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03217578537502657</v>
+        <v>0.0283880366903712</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09802188509752456</v>
+        <v>0.09424443878142043</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2150,19 +2150,19 @@
         <v>21800</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>13889</v>
+        <v>13961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31689</v>
+        <v>33105</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05043966791107898</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03213496361579184</v>
+        <v>0.03230068184469538</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07331892461941346</v>
+        <v>0.07659462224471331</v>
       </c>
     </row>
     <row r="24">
@@ -2183,19 +2183,19 @@
         <v>188061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>171117</v>
+        <v>170543</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>202568</v>
+        <v>202983</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6864021638667638</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6245569938388038</v>
+        <v>0.6224627732587085</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7393521905241438</v>
+        <v>0.7408665049020788</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>196</v>
@@ -2204,19 +2204,19 @@
         <v>200183</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>183943</v>
+        <v>184908</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>215491</v>
+        <v>215739</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7173521961604471</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6591570722878769</v>
+        <v>0.6626133619941601</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.772206893186129</v>
+        <v>0.7730971205623579</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>377</v>
@@ -2225,19 +2225,19 @@
         <v>388244</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>367545</v>
+        <v>365198</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>409935</v>
+        <v>409685</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7020192448664412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6645913455126822</v>
+        <v>0.6603479411901845</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7412398669141673</v>
+        <v>0.740789325198545</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>13264</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7079</v>
+        <v>7162</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23695</v>
+        <v>22979</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04841252967125437</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02583915645040968</v>
+        <v>0.02613925069536297</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08648431417649499</v>
+        <v>0.08387158679868516</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2275,19 +2275,19 @@
         <v>8807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3851</v>
+        <v>4045</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16537</v>
+        <v>16582</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03156074069587948</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01379937029433157</v>
+        <v>0.01449665241391938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05926108247724782</v>
+        <v>0.05942277315998452</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2296,19 +2296,19 @@
         <v>22071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14263</v>
+        <v>12547</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33727</v>
+        <v>32698</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03990928318282946</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02578998800551946</v>
+        <v>0.02268656643676259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0609854180882432</v>
+        <v>0.05912462604569142</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>70737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>56867</v>
+        <v>56260</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>86701</v>
+        <v>88029</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2581817801932043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.207556792002473</v>
+        <v>0.2053441947559607</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3164472236792857</v>
+        <v>0.3212974816251976</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -2346,19 +2346,19 @@
         <v>68009</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54015</v>
+        <v>51701</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83891</v>
+        <v>82455</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.243709175885375</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1935617802129533</v>
+        <v>0.1852706748740541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3006219419779725</v>
+        <v>0.2954749104000691</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>128</v>
@@ -2367,19 +2367,19 @@
         <v>138746</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>118604</v>
+        <v>119522</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>158230</v>
+        <v>160753</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.250879046819392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2144591567512526</v>
+        <v>0.2161193680002055</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2861105761128431</v>
+        <v>0.2906714388092412</v>
       </c>
     </row>
     <row r="27">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6709</v>
+        <v>6334</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.00700352626877748</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02448715956848536</v>
+        <v>0.02311985280904068</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7350</v>
+        <v>6315</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.007377887258298481</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02634004228441153</v>
+        <v>0.02262982283026354</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4</v>
@@ -2438,19 +2438,19 @@
         <v>3978</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>9955</v>
+        <v>9296</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007192425131337376</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001767784851657865</v>
+        <v>0.001764476720891746</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01800031893849867</v>
+        <v>0.01680914077773582</v>
       </c>
     </row>
     <row r="28">
@@ -2471,19 +2471,19 @@
         <v>483165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>455142</v>
+        <v>457434</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>506399</v>
+        <v>504879</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7289880458476747</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.68670882932782</v>
+        <v>0.6901657148293263</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7640436021354479</v>
+        <v>0.7617497896437107</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>460</v>
@@ -2492,19 +2492,19 @@
         <v>503829</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>479191</v>
+        <v>478879</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>527222</v>
+        <v>526643</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7261315179782326</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6906233858984706</v>
+        <v>0.6901740699203813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7598463849702074</v>
+        <v>0.7590117777404808</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>914</v>
@@ -2513,19 +2513,19 @@
         <v>986993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>953320</v>
+        <v>954542</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1022515</v>
+        <v>1022200</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7275270769298878</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7027064405474494</v>
+        <v>0.7036069985199133</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7537108187229976</v>
+        <v>0.7534788373871221</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>4867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1090</v>
+        <v>1728</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10166</v>
+        <v>11024</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007342843914626233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001644450958599769</v>
+        <v>0.002606874025980547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01533757944708654</v>
+        <v>0.01663347761307446</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2563,19 +2563,19 @@
         <v>2958</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8018</v>
+        <v>7862</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004263752170512619</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00136528205682518</v>
+        <v>0.00135928199813163</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01155590301257851</v>
+        <v>0.01133058194487726</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -2584,19 +2584,19 @@
         <v>7825</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3732</v>
+        <v>3873</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15438</v>
+        <v>15719</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00576804487930546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.002750866627831547</v>
+        <v>0.002855001628820542</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01137936690571019</v>
+        <v>0.01158660173777039</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>163073</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>140661</v>
+        <v>140564</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>189052</v>
+        <v>186606</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2460416787049545</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.212225622345099</v>
+        <v>0.2120798933470506</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2852378351595472</v>
+        <v>0.2815462976577353</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>157</v>
@@ -2634,19 +2634,19 @@
         <v>169712</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144740</v>
+        <v>147372</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>191359</v>
+        <v>194553</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2445932292317061</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2086026579896659</v>
+        <v>0.2123963100342214</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2757920361563839</v>
+        <v>0.2803952475772819</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>305</v>
@@ -2655,19 +2655,19 @@
         <v>332785</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>301021</v>
+        <v>298393</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>366554</v>
+        <v>364762</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2453008703683588</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2218872502085765</v>
+        <v>0.2199494949874159</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2701921651156328</v>
+        <v>0.2688714298624341</v>
       </c>
     </row>
     <row r="31">
@@ -2684,19 +2684,19 @@
         <v>11683</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6251</v>
+        <v>6335</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19741</v>
+        <v>20888</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01762743153274454</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009430928727486987</v>
+        <v>0.009557663636334878</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02978549355314334</v>
+        <v>0.03151574656612993</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2705,19 +2705,19 @@
         <v>17354</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10468</v>
+        <v>10213</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>28132</v>
+        <v>27569</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02501150061954862</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01508742428063042</v>
+        <v>0.01471933989227726</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0405451947472578</v>
+        <v>0.03973327888577651</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -2726,19 +2726,19 @@
         <v>29038</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18939</v>
+        <v>20077</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40902</v>
+        <v>41768</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02140400782244796</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01396052408517744</v>
+        <v>0.01479898327074811</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03014981694521924</v>
+        <v>0.03078783963659607</v>
       </c>
     </row>
     <row r="32">
@@ -2759,19 +2759,19 @@
         <v>378285</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>348740</v>
+        <v>348874</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>408105</v>
+        <v>406976</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4870443476103114</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4490049212805713</v>
+        <v>0.4491763979540126</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5254377782660206</v>
+        <v>0.523983788325704</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>417</v>
@@ -2780,19 +2780,19 @@
         <v>460340</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>429785</v>
+        <v>430649</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>490389</v>
+        <v>491991</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5587647182944548</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5216773897233978</v>
+        <v>0.5227252267814769</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5952390607416921</v>
+        <v>0.5971825006677923</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>758</v>
@@ -2801,19 +2801,19 @@
         <v>838625</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>798876</v>
+        <v>794350</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>880649</v>
+        <v>875503</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5239610819533546</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4991262819904298</v>
+        <v>0.4962982168115769</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5502168795290777</v>
+        <v>0.5470016193121253</v>
       </c>
     </row>
     <row r="33">
@@ -2830,19 +2830,19 @@
         <v>16153</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9194</v>
+        <v>9999</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>26067</v>
+        <v>25476</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02079748093788146</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01183791619105762</v>
+        <v>0.01287326841402965</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03356142798697202</v>
+        <v>0.03280093039823211</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>20</v>
@@ -2851,19 +2851,19 @@
         <v>20778</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>13322</v>
+        <v>13181</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>32554</v>
+        <v>31343</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02521993657511821</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01617057367356459</v>
+        <v>0.01599879613324832</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03951461525691566</v>
+        <v>0.03804425442913691</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>36</v>
@@ -2872,19 +2872,19 @@
         <v>36931</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>25339</v>
+        <v>26461</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>49361</v>
+        <v>50668</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02307385818393295</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01583133757924545</v>
+        <v>0.01653259794785604</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03084021355628978</v>
+        <v>0.03165655886925123</v>
       </c>
     </row>
     <row r="34">
@@ -2901,19 +2901,19 @@
         <v>369218</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>338117</v>
+        <v>339709</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>397840</v>
+        <v>399637</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4753701780043444</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4353277219947048</v>
+        <v>0.4373767886514155</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5122216046893133</v>
+        <v>0.5145345628644131</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>323</v>
@@ -2922,19 +2922,19 @@
         <v>347142</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>316122</v>
+        <v>320236</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>378612</v>
+        <v>376902</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4213637423038839</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3837115670327916</v>
+        <v>0.3887050299784321</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4595626887175961</v>
+        <v>0.4574870766898703</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>669</v>
@@ -2943,19 +2943,19 @@
         <v>716360</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>676838</v>
+        <v>676754</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>758027</v>
+        <v>757164</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4475713640753287</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4228788799403366</v>
+        <v>0.4228264514462928</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4736045927053933</v>
+        <v>0.4730653853920829</v>
       </c>
     </row>
     <row r="35">
@@ -2972,19 +2972,19 @@
         <v>22268</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14753</v>
+        <v>14727</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>32953</v>
+        <v>33609</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02866984875255549</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01899420148880034</v>
+        <v>0.01896155276074238</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04242764093070513</v>
+        <v>0.04327148294377154</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -2993,19 +2993,19 @@
         <v>14579</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>8215</v>
+        <v>8230</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23409</v>
+        <v>23433</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01769572636715241</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.009971294939564649</v>
+        <v>0.009989277413670174</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02841434425955141</v>
+        <v>0.02844298360044304</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>35</v>
@@ -3014,19 +3014,19 @@
         <v>36846</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>26008</v>
+        <v>26336</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>49932</v>
+        <v>50475</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02302112222081243</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01624924536795621</v>
+        <v>0.01645461381827229</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03119671769888079</v>
+        <v>0.03153609965075402</v>
       </c>
     </row>
     <row r="36">
@@ -3047,19 +3047,19 @@
         <v>2162883</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2097461</v>
+        <v>2107438</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2215665</v>
+        <v>2222293</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6324802283402595</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6133493868600493</v>
+        <v>0.6162669573543206</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6479150529899986</v>
+        <v>0.6498533083020606</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2133</v>
@@ -3068,19 +3068,19 @@
         <v>2312049</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2252613</v>
+        <v>2254627</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2373933</v>
+        <v>2369594</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6505296478309722</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6338064808942335</v>
+        <v>0.6343732405299802</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6679417962311314</v>
+        <v>0.6667209065917047</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4158</v>
@@ -3089,19 +3089,19 @@
         <v>4474931</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4399473</v>
+        <v>4390104</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4561124</v>
+        <v>4561686</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6416788868466724</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6308586181760962</v>
+        <v>0.6295151029025172</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6540384128592316</v>
+        <v>0.6541190070536096</v>
       </c>
     </row>
     <row r="37">
@@ -3118,19 +3118,19 @@
         <v>107529</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03144423215307094</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>90</v>
@@ -3139,19 +3139,19 @@
         <v>95576</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02689166906771153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>194</v>
@@ -3160,19 +3160,19 @@
         <v>203105</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02912407591908953</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
     </row>
     <row r="38">
@@ -3189,19 +3189,19 @@
         <v>1016385</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>965556</v>
+        <v>960460</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1075649</v>
+        <v>1071546</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.297216009332859</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2823524192327619</v>
+        <v>0.2808621320412155</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.314546405534818</v>
+        <v>0.3133464263353175</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>942</v>
@@ -3210,19 +3210,19 @@
         <v>1005887</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>950938</v>
+        <v>950954</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1063115</v>
+        <v>1062778</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2830214643512438</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2675607382729964</v>
+        <v>0.267565226392894</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2991234341391248</v>
+        <v>0.2990286090334428</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1893</v>
@@ -3231,19 +3231,19 @@
         <v>2022272</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1948675</v>
+        <v>1938732</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2099509</v>
+        <v>2101319</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2899819388960241</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2794285575917974</v>
+        <v>0.2780028037711394</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3010572024126567</v>
+        <v>0.3013168379080539</v>
       </c>
     </row>
     <row r="39">
@@ -3260,19 +3260,19 @@
         <v>142116</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04155819744811518</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>146</v>
@@ -3281,19 +3281,19 @@
         <v>159575</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04489892557857706</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>277</v>
@@ -3302,19 +3302,19 @@
         <v>301691</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04326075731441438</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
     </row>
     <row r="40">
@@ -3579,19 +3579,19 @@
         <v>45072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33948</v>
+        <v>33309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60280</v>
+        <v>58760</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.153431705341886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1155625631041468</v>
+        <v>0.1133881473501977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2051995604529175</v>
+        <v>0.2000263586594918</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -3600,19 +3600,19 @@
         <v>42084</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30389</v>
+        <v>31721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54096</v>
+        <v>57411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1457696875964713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1052597716228629</v>
+        <v>0.1098731423042242</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1873746842982044</v>
+        <v>0.1988570359985337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -3621,19 +3621,19 @@
         <v>87156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70423</v>
+        <v>70288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106482</v>
+        <v>104152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1496339641845858</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1209055706675986</v>
+        <v>0.1206741841537192</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1828123608511097</v>
+        <v>0.1788124420627638</v>
       </c>
     </row>
     <row r="5">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4562</v>
+        <v>4523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003109004473306586</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01580329434156049</v>
+        <v>0.01566749285015821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4466</v>
+        <v>4516</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001541003249904106</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007668048012492367</v>
+        <v>0.007753089532685369</v>
       </c>
     </row>
     <row r="6">
@@ -3713,19 +3713,19 @@
         <v>103084</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>87619</v>
+        <v>84952</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119446</v>
+        <v>119068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3509107654262881</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2982672686980259</v>
+        <v>0.2891887049673514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4066106551256575</v>
+        <v>0.4053217555812694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>113</v>
@@ -3734,19 +3734,19 @@
         <v>117826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102413</v>
+        <v>100535</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>133607</v>
+        <v>133191</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4081228101650691</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3547341424266316</v>
+        <v>0.3482283355618616</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4627828838928101</v>
+        <v>0.4613421059965422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>212</v>
@@ -3755,19 +3755,19 @@
         <v>220910</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197572</v>
+        <v>197219</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>244024</v>
+        <v>244226</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3792683788144586</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3392007502467297</v>
+        <v>0.3385937551635024</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4189513235340787</v>
+        <v>0.4192973618317926</v>
       </c>
     </row>
     <row r="7">
@@ -3784,19 +3784,19 @@
         <v>145605</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126527</v>
+        <v>128071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162024</v>
+        <v>162798</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4956575292318258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4307135205741398</v>
+        <v>0.4359711711001845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.55155023443003</v>
+        <v>0.554184430112091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>123</v>
@@ -3805,19 +3805,19 @@
         <v>127895</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112750</v>
+        <v>111346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144630</v>
+        <v>145571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.442998497765153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3905385400519955</v>
+        <v>0.385675888670139</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5009647950878542</v>
+        <v>0.5042223376326858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>248</v>
@@ -3826,19 +3826,19 @@
         <v>273500</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>250578</v>
+        <v>250035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>301435</v>
+        <v>298787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4695566537510515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.430203286565298</v>
+        <v>0.4292713854396584</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5175172773700792</v>
+        <v>0.5129702560801421</v>
       </c>
     </row>
     <row r="8">
@@ -3859,19 +3859,19 @@
         <v>178183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>157788</v>
+        <v>156899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>199849</v>
+        <v>199716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3545391266260813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.313960017360953</v>
+        <v>0.3121896063081459</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3976498104519028</v>
+        <v>0.3973848492631978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>162</v>
@@ -3880,19 +3880,19 @@
         <v>171480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151346</v>
+        <v>150315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196213</v>
+        <v>193945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3278248211290454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2893332635979622</v>
+        <v>0.2873621048837497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3751085828561458</v>
+        <v>0.3707723220305912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>333</v>
@@ -3901,19 +3901,19 @@
         <v>349662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>318808</v>
+        <v>318945</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>378252</v>
+        <v>381008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3409148900611966</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.310832229821073</v>
+        <v>0.3109656819337381</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.368789110625115</v>
+        <v>0.3714767630482494</v>
       </c>
     </row>
     <row r="9">
@@ -3930,19 +3930,19 @@
         <v>3124</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8979</v>
+        <v>8516</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006216215077460787</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002024095231065792</v>
+        <v>0.002021110710626699</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01786687423028691</v>
+        <v>0.01694520239080604</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -3951,19 +3951,19 @@
         <v>6399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2195</v>
+        <v>2164</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13202</v>
+        <v>12914</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01223289441990484</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004196606578099915</v>
+        <v>0.004137680016027455</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02523821948830687</v>
+        <v>0.02468742415206656</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3972,19 +3972,19 @@
         <v>9523</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4260</v>
+        <v>5109</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16789</v>
+        <v>18185</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.009284708200203877</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004153630045479239</v>
+        <v>0.004981350549842305</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01636934485245771</v>
+        <v>0.01773017653717677</v>
       </c>
     </row>
     <row r="10">
@@ -4001,19 +4001,19 @@
         <v>187442</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>164191</v>
+        <v>167267</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>209407</v>
+        <v>209896</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3729634903695447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3266997638329493</v>
+        <v>0.3328198501991206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4166686965458879</v>
+        <v>0.4176416537779886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>206</v>
@@ -4022,19 +4022,19 @@
         <v>226562</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200974</v>
+        <v>203435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>248320</v>
+        <v>249090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.433127384649287</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3842101280947617</v>
+        <v>0.3889141486872261</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4747237402856893</v>
+        <v>0.4761947405084211</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>381</v>
@@ -4043,19 +4043,19 @@
         <v>414004</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>383405</v>
+        <v>383852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>448450</v>
+        <v>448021</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4036469430396083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3738135499198867</v>
+        <v>0.3742486590096863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4372313024673474</v>
+        <v>0.4368129900168789</v>
       </c>
     </row>
     <row r="11">
@@ -4072,19 +4072,19 @@
         <v>136028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114982</v>
+        <v>118217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>156993</v>
+        <v>159850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2706627222600592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2287864528001245</v>
+        <v>0.2352220208353208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3123773076607032</v>
+        <v>0.318062423705917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -4093,19 +4093,19 @@
         <v>120737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101345</v>
+        <v>101766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142361</v>
+        <v>140552</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2308176770467265</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1937460544581739</v>
+        <v>0.1945505462858033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2721579593015109</v>
+        <v>0.2686995408240824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>240</v>
@@ -4114,19 +4114,19 @@
         <v>256765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>230365</v>
+        <v>227591</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>285601</v>
+        <v>284202</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2503418375570972</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2246017365101409</v>
+        <v>0.2218976311029947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2784558123896791</v>
+        <v>0.2770920822767028</v>
       </c>
     </row>
     <row r="12">
@@ -4147,19 +4147,19 @@
         <v>256731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>242073</v>
+        <v>241063</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>270191</v>
+        <v>269356</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8058974370603135</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7598869805459996</v>
+        <v>0.7567162712649033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8481498657804563</v>
+        <v>0.8455288522808514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>267</v>
@@ -4168,19 +4168,19 @@
         <v>272656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257386</v>
+        <v>256335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>285586</v>
+        <v>285550</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8107317691247858</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7653255685312756</v>
+        <v>0.7621994829062276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8491768774153479</v>
+        <v>0.8490703298699048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>539</v>
@@ -4189,19 +4189,19 @@
         <v>529387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>508221</v>
+        <v>506883</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>547649</v>
+        <v>546991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8083800969199465</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7760588631787554</v>
+        <v>0.7740167355452667</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8362667097844408</v>
+        <v>0.8352615033443873</v>
       </c>
     </row>
     <row r="13">
@@ -4218,19 +4218,19 @@
         <v>8203</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3834</v>
+        <v>3947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15206</v>
+        <v>15175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02574949682570847</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01203600260493003</v>
+        <v>0.01239149284108147</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04773410098108499</v>
+        <v>0.04763509890099574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4239,19 +4239,19 @@
         <v>6743</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2886</v>
+        <v>2826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13595</v>
+        <v>13361</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02004867375343844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008582254971856088</v>
+        <v>0.008403997685228466</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04042352154113907</v>
+        <v>0.03972971838234879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4260,19 +4260,19 @@
         <v>14945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8788</v>
+        <v>8357</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23975</v>
+        <v>24661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0228218525473175</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01341999104797957</v>
+        <v>0.01276077968975315</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0366095087567901</v>
+        <v>0.0376579516054851</v>
       </c>
     </row>
     <row r="14">
@@ -4289,19 +4289,19 @@
         <v>48317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36633</v>
+        <v>35747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61790</v>
+        <v>63903</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1516701257780399</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1149938734330137</v>
+        <v>0.1122138809624569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.193962347350896</v>
+        <v>0.2005970605456674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -4310,19 +4310,19 @@
         <v>54037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41349</v>
+        <v>41704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66902</v>
+        <v>68677</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1606761931387188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1229494717189598</v>
+        <v>0.124004565766322</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1989315903730914</v>
+        <v>0.204209520549663</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -4331,19 +4331,19 @@
         <v>102354</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85400</v>
+        <v>87399</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>121713</v>
+        <v>122724</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1562951704856274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1304068647911025</v>
+        <v>0.1334588142993837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1858568806974907</v>
+        <v>0.1874013619362341</v>
       </c>
     </row>
     <row r="15">
@@ -4360,19 +4360,19 @@
         <v>6212</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2696</v>
+        <v>2720</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12438</v>
+        <v>13068</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01949981307922124</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008463322997936068</v>
+        <v>0.008537274257586887</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03904537405631871</v>
+        <v>0.04102066972348532</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4381,19 +4381,19 @@
         <v>2873</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7541</v>
+        <v>7875</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.008543363983056912</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002643255951074649</v>
+        <v>0.002659095639243209</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02242145907815453</v>
+        <v>0.02341499483614248</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -4402,19 +4402,19 @@
         <v>9085</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4431</v>
+        <v>4341</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16503</v>
+        <v>15626</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01387315441937009</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.006765509180583473</v>
+        <v>0.006629512462703695</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02519974874493357</v>
+        <v>0.0238609655416482</v>
       </c>
     </row>
     <row r="16">
@@ -4435,19 +4435,19 @@
         <v>228259</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>208933</v>
+        <v>208990</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>246604</v>
+        <v>247690</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6169749066065219</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.56473812726146</v>
+        <v>0.5648923341111098</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6665623397556055</v>
+        <v>0.6694983155988792</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>228</v>
@@ -4456,19 +4456,19 @@
         <v>242732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>220178</v>
+        <v>222626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>261162</v>
+        <v>261061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6267562478084819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5685195071735832</v>
+        <v>0.5748397278533476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6743429604649321</v>
+        <v>0.6740829372004161</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>445</v>
@@ -4477,19 +4477,19 @@
         <v>470991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>441942</v>
+        <v>443569</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>498974</v>
+        <v>499533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6219774317771352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5836170110988876</v>
+        <v>0.5857650511341088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6589310286790857</v>
+        <v>0.6596698508821633</v>
       </c>
     </row>
     <row r="17">
@@ -4506,19 +4506,19 @@
         <v>17022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10308</v>
+        <v>10497</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26851</v>
+        <v>27321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04600998665250002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02786150044961964</v>
+        <v>0.02837227834967642</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07257610682489937</v>
+        <v>0.07384794191510084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -4527,19 +4527,19 @@
         <v>19307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11468</v>
+        <v>11597</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31439</v>
+        <v>31866</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04985226389333985</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02961205674713892</v>
+        <v>0.02994332332494073</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08117769967494888</v>
+        <v>0.08228218781764228</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -4548,19 +4548,19 @@
         <v>36329</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24994</v>
+        <v>25236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50618</v>
+        <v>52266</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04797506365093089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03300608197811473</v>
+        <v>0.03332575510810225</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06684517838982221</v>
+        <v>0.06902098818185438</v>
       </c>
     </row>
     <row r="18">
@@ -4577,19 +4577,19 @@
         <v>109644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92362</v>
+        <v>91672</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128830</v>
+        <v>126999</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2963639180189488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.249650872234227</v>
+        <v>0.2477864597009768</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3482243703061195</v>
+        <v>0.3432738970856531</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -4598,19 +4598,19 @@
         <v>107403</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>91063</v>
+        <v>90233</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127586</v>
+        <v>125603</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2773232163670775</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2351329760247698</v>
+        <v>0.2329889020506869</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3294381105471531</v>
+        <v>0.3243189740947504</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>203</v>
@@ -4619,19 +4619,19 @@
         <v>217047</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194064</v>
+        <v>189286</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243444</v>
+        <v>242915</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.286625827166895</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2562753616365875</v>
+        <v>0.2499659993394975</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3214858037303554</v>
+        <v>0.3207867828332634</v>
       </c>
     </row>
     <row r="19">
@@ -4648,19 +4648,19 @@
         <v>15039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8585</v>
+        <v>9116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23872</v>
+        <v>25794</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04065118872202926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02320479702613691</v>
+        <v>0.0246391618180747</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06452483004390046</v>
+        <v>0.06972082012861151</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4669,19 +4669,19 @@
         <v>18766</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11480</v>
+        <v>12290</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28510</v>
+        <v>29121</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04845471085980015</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02964210191281187</v>
+        <v>0.03173357161480489</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07361586449260955</v>
+        <v>0.07519266932252565</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -4690,19 +4690,19 @@
         <v>33805</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23683</v>
+        <v>23343</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47189</v>
+        <v>46207</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04464218700208256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03127452714108433</v>
+        <v>0.03082656108241396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06231664292262472</v>
+        <v>0.06101989815373222</v>
       </c>
     </row>
     <row r="20">
@@ -4723,19 +4723,19 @@
         <v>189047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178697</v>
+        <v>178375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197333</v>
+        <v>196454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8950204141563444</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8460195364633869</v>
+        <v>0.8444933038346445</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9342496681074602</v>
+        <v>0.9300879840726548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>198</v>
@@ -4744,19 +4744,19 @@
         <v>195312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184992</v>
+        <v>185716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>203223</v>
+        <v>202737</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8935187275268753</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8463060894512313</v>
+        <v>0.84962038327196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9297105470478934</v>
+        <v>0.9274887466341393</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>388</v>
@@ -4765,19 +4765,19 @@
         <v>384359</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>372288</v>
+        <v>370337</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394930</v>
+        <v>395439</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8942567029722679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8661720238243618</v>
+        <v>0.8616338974245537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9188530374429935</v>
+        <v>0.9200364727971477</v>
       </c>
     </row>
     <row r="21">
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4282</v>
+        <v>4230</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0038922747274713</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01958982701011493</v>
+        <v>0.01934949543367193</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3633</v>
+        <v>5214</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001979490049744318</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008453752234864602</v>
+        <v>0.01213028133024249</v>
       </c>
     </row>
     <row r="22">
@@ -4857,19 +4857,19 @@
         <v>19222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11603</v>
+        <v>12516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28423</v>
+        <v>29632</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09100490016795711</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05493146356138767</v>
+        <v>0.05925372533169582</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1345635399624302</v>
+        <v>0.1402874039333395</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4878,19 +4878,19 @@
         <v>18811</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11969</v>
+        <v>11933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27971</v>
+        <v>27727</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08605505042535012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05475639231438245</v>
+        <v>0.05458990480959319</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1279621375989113</v>
+        <v>0.1268462720371035</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -4899,19 +4899,19 @@
         <v>38033</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28543</v>
+        <v>27165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50244</v>
+        <v>52098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08848756030906549</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06640877572443019</v>
+        <v>0.06320345410019641</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1168984933115953</v>
+        <v>0.1212126195756926</v>
       </c>
     </row>
     <row r="23">
@@ -4928,19 +4928,19 @@
         <v>2952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8077</v>
+        <v>7936</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01397468567569847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004435681870643063</v>
+        <v>0.004389313721164952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03824163577709216</v>
+        <v>0.03757067766003985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -4949,19 +4949,19 @@
         <v>4667</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1797</v>
+        <v>1810</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10344</v>
+        <v>10487</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02134925302607362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008223187873727939</v>
+        <v>0.008280688786262379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04732055950719766</v>
+        <v>0.04797646216612222</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -4970,19 +4970,19 @@
         <v>7618</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3737</v>
+        <v>2999</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14629</v>
+        <v>14362</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01772516160901491</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00869381679552177</v>
+        <v>0.006978477008664871</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03403705644370381</v>
+        <v>0.03341539820762754</v>
       </c>
     </row>
     <row r="24">
@@ -5003,19 +5003,19 @@
         <v>66825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51710</v>
+        <v>53403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82648</v>
+        <v>80948</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2539668669502878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1965233726395575</v>
+        <v>0.2029574929404922</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3141058157365384</v>
+        <v>0.3076429716208458</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -5024,19 +5024,19 @@
         <v>65204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>50994</v>
+        <v>51099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80928</v>
+        <v>78934</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2387427134394915</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1867124263909472</v>
+        <v>0.1870984640401943</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.296314829906816</v>
+        <v>0.2890131312150517</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>126</v>
@@ -5045,19 +5045,19 @@
         <v>132029</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>112725</v>
+        <v>111669</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>152568</v>
+        <v>150935</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2462129504137781</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2102141705770128</v>
+        <v>0.2082445174890236</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2845147920642075</v>
+        <v>0.2814694170413475</v>
       </c>
     </row>
     <row r="25">
@@ -5074,19 +5074,19 @@
         <v>38555</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28527</v>
+        <v>28161</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50177</v>
+        <v>50737</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1465302042209252</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1084178779731142</v>
+        <v>0.1070274306844623</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1906963822587136</v>
+        <v>0.1928277658131664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -5095,19 +5095,19 @@
         <v>27810</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18904</v>
+        <v>19423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38749</v>
+        <v>39251</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1018265868766551</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06921465080890442</v>
+        <v>0.0711170725027488</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1418790630636719</v>
+        <v>0.143716374977488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -5116,19 +5116,19 @@
         <v>66366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51057</v>
+        <v>52590</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81627</v>
+        <v>83548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1237619026847036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09521365166884435</v>
+        <v>0.09807281580537623</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1522210840681088</v>
+        <v>0.1558047081851975</v>
       </c>
     </row>
     <row r="26">
@@ -5145,19 +5145,19 @@
         <v>67276</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54041</v>
+        <v>52662</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81612</v>
+        <v>81259</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2556831296819146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2053825411614366</v>
+        <v>0.200142190687724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3101661486344702</v>
+        <v>0.3088258204143355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -5166,19 +5166,19 @@
         <v>85825</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>71055</v>
+        <v>72001</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>101706</v>
+        <v>102321</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3142456225679273</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2601659634008767</v>
+        <v>0.2636284131626942</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3723926212475932</v>
+        <v>0.3746447457784062</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>151</v>
@@ -5187,19 +5187,19 @@
         <v>153101</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>133191</v>
+        <v>133200</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>177025</v>
+        <v>174093</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2855099888032486</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2483800587579986</v>
+        <v>0.2483969655208795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3301236296958635</v>
+        <v>0.3246554500883509</v>
       </c>
     </row>
     <row r="27">
@@ -5216,19 +5216,19 @@
         <v>90467</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>75744</v>
+        <v>76378</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>107089</v>
+        <v>106766</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3438197991468724</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2878672060092267</v>
+        <v>0.2902751847645216</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4069908880702598</v>
+        <v>0.4057652520478873</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>89</v>
@@ -5237,19 +5237,19 @@
         <v>94275</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>77942</v>
+        <v>78133</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>110079</v>
+        <v>111003</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3451850771159261</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2853806559703362</v>
+        <v>0.286082770523319</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4030509489787283</v>
+        <v>0.4064336759759092</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>178</v>
@@ -5258,19 +5258,19 @@
         <v>184742</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>162390</v>
+        <v>164944</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>209076</v>
+        <v>209599</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3445151580982696</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3028319559081881</v>
+        <v>0.3075941103219602</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3898941307818554</v>
+        <v>0.3908685362931635</v>
       </c>
     </row>
     <row r="28">
@@ -5291,19 +5291,19 @@
         <v>337088</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>310615</v>
+        <v>311088</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>365409</v>
+        <v>362972</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5134162671531067</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4730964467093502</v>
+        <v>0.4738164080064895</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5565527604168671</v>
+        <v>0.5528414071827903</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>334</v>
@@ -5312,19 +5312,19 @@
         <v>354171</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>326883</v>
+        <v>330065</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>379489</v>
+        <v>380320</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5123309938919101</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4728564501418739</v>
+        <v>0.4774589580249384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5489548506683801</v>
+        <v>0.5501570940614958</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>637</v>
@@ -5333,19 +5333,19 @@
         <v>691259</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>653667</v>
+        <v>655066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>731679</v>
+        <v>732524</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5128596460287516</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4849695830094747</v>
+        <v>0.4860072396599586</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5428483668095329</v>
+        <v>0.543474966757045</v>
       </c>
     </row>
     <row r="29">
@@ -5362,19 +5362,19 @@
         <v>22671</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14146</v>
+        <v>14258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36263</v>
+        <v>35149</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03453071243331451</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02154636663944465</v>
+        <v>0.02171632030962511</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05523134648482931</v>
+        <v>0.05353561262768182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -5383,19 +5383,19 @@
         <v>21559</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13672</v>
+        <v>12780</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33111</v>
+        <v>31321</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03118672167972934</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01977740457997951</v>
+        <v>0.01848692227486712</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04789646814957304</v>
+        <v>0.04530848395513761</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -5404,19 +5404,19 @@
         <v>44231</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>31612</v>
+        <v>32136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60561</v>
+        <v>59776</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03281562743155068</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02345368885954736</v>
+        <v>0.02384212626965332</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04493183441187037</v>
+        <v>0.04434925006810658</v>
       </c>
     </row>
     <row r="30">
@@ -5433,19 +5433,19 @@
         <v>164900</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>141590</v>
+        <v>142391</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>187629</v>
+        <v>188363</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2511582844615143</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.215654983008838</v>
+        <v>0.2168752713345166</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2857768671830671</v>
+        <v>0.2868947694171985</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>165</v>
@@ -5454,19 +5454,19 @@
         <v>180642</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>158132</v>
+        <v>156859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>205088</v>
+        <v>205145</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2613096012424567</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2287473288514836</v>
+        <v>0.2269068134841085</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2966731001998378</v>
+        <v>0.2967552687262156</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>307</v>
@@ -5475,19 +5475,19 @@
         <v>345542</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>313945</v>
+        <v>311046</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>380239</v>
+        <v>380100</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2563647495632738</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2329223605167704</v>
+        <v>0.2307713815384299</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2821075213632545</v>
+        <v>0.2820045844035458</v>
       </c>
     </row>
     <row r="31">
@@ -5504,19 +5504,19 @@
         <v>131899</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>112016</v>
+        <v>111384</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>152893</v>
+        <v>153494</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2008947359520644</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1706105949188289</v>
+        <v>0.1696478685539729</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2328700106694444</v>
+        <v>0.2337858187972024</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>128</v>
@@ -5525,19 +5525,19 @@
         <v>136952</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>116910</v>
+        <v>116626</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>163438</v>
+        <v>160022</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1981094689391977</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.169117070732381</v>
+        <v>0.1687061768556305</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2364230635054885</v>
+        <v>0.2314823179048223</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>244</v>
@@ -5546,19 +5546,19 @@
         <v>268851</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>237965</v>
+        <v>239938</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>298927</v>
+        <v>299279</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1994662123610366</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1765513280545981</v>
+        <v>0.1780153662590047</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2217803281547221</v>
+        <v>0.2220411304582629</v>
       </c>
     </row>
     <row r="32">
@@ -5579,19 +5579,19 @@
         <v>499341</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>472583</v>
+        <v>471535</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>526931</v>
+        <v>524271</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6413460481847448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6069788315680293</v>
+        <v>0.6056316977170382</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6767824475848625</v>
+        <v>0.6733652265917672</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>468</v>
@@ -5600,19 +5600,19 @@
         <v>510256</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>480739</v>
+        <v>483179</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>541397</v>
+        <v>541494</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6176179088984983</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5818908541199935</v>
+        <v>0.584844098456004</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6553121756224998</v>
+        <v>0.6554295175291548</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>950</v>
@@ -5621,19 +5621,19 @@
         <v>1009597</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>969172</v>
+        <v>970847</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1050045</v>
+        <v>1048546</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.62913018545733</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6039395401150467</v>
+        <v>0.6049834274784539</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6543354739315707</v>
+        <v>0.6534015178030291</v>
       </c>
     </row>
     <row r="33">
@@ -5650,19 +5650,19 @@
         <v>5430</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13843</v>
+        <v>12544</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.006973818360948953</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002455032240260649</v>
+        <v>0.002439181836141027</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01777949906485</v>
+        <v>0.01611076709823517</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>4</v>
@@ -5671,19 +5671,19 @@
         <v>4387</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11006</v>
+        <v>11024</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005310091813520055</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.001403094040104128</v>
+        <v>0.001404170582490392</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01332217385887787</v>
+        <v>0.01334372164787788</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -5692,19 +5692,19 @@
         <v>9817</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5243</v>
+        <v>4697</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19090</v>
+        <v>18079</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.006117288699091837</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00326710728362091</v>
+        <v>0.00292671897813609</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01189622714913459</v>
+        <v>0.01126568754711956</v>
       </c>
     </row>
     <row r="34">
@@ -5721,19 +5721,19 @@
         <v>269462</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>243481</v>
+        <v>244223</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>295981</v>
+        <v>297223</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3460931413409452</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3127228205808906</v>
+        <v>0.3136762459955272</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3801540348428275</v>
+        <v>0.3817483749629278</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>276</v>
@@ -5742,19 +5742,19 @@
         <v>303853</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>272589</v>
+        <v>272755</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>333190</v>
+        <v>330565</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3677868950455467</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3299440320450843</v>
+        <v>0.3301446199407048</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4032964606286183</v>
+        <v>0.4001190117833726</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>535</v>
@@ -5763,19 +5763,19 @@
         <v>573316</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>533310</v>
+        <v>535520</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>610831</v>
+        <v>611785</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3572616495033769</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3323322158946522</v>
+        <v>0.3337091281081022</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3806391098509916</v>
+        <v>0.3812337821640865</v>
       </c>
     </row>
     <row r="35">
@@ -5792,19 +5792,19 @@
         <v>5369</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10883</v>
+        <v>11864</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006895570146433567</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002619013046175583</v>
+        <v>0.002625238015107293</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01397822647186746</v>
+        <v>0.01523795934777987</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>8</v>
@@ -5813,19 +5813,19 @@
         <v>8630</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4151</v>
+        <v>4251</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15900</v>
+        <v>17243</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01044532702575792</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005024884949631717</v>
+        <v>0.005145778931752699</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0192455924662398</v>
+        <v>0.02087052360050004</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -5834,19 +5834,19 @@
         <v>13998</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7466</v>
+        <v>8129</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>23003</v>
+        <v>22928</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.008723077235396816</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004652495037333563</v>
+        <v>0.005065409167483543</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01433456877380797</v>
+        <v>0.0142872898753604</v>
       </c>
     </row>
     <row r="36">
@@ -5867,19 +5867,19 @@
         <v>1800544</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1743212</v>
+        <v>1737899</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1859688</v>
+        <v>1856203</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5304533200093672</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5135629425466633</v>
+        <v>0.5119977106528035</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5478775047510674</v>
+        <v>0.5468507161135466</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1759</v>
@@ -5888,19 +5888,19 @@
         <v>1853895</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1796897</v>
+        <v>1792466</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1911900</v>
+        <v>1914463</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5230281279618629</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5069475991328501</v>
+        <v>0.5056975642318083</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5393925398779188</v>
+        <v>0.5401158489672195</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3500</v>
@@ -5909,19 +5909,19 @@
         <v>3654439</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3573105</v>
+        <v>3567190</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3738722</v>
+        <v>3739859</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5266603652025651</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5149388689738688</v>
+        <v>0.5140863489528112</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5388067026155419</v>
+        <v>0.5389706972380044</v>
       </c>
     </row>
     <row r="37">
@@ -5938,19 +5938,19 @@
         <v>95006</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02798933878433816</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>84</v>
@@ -5959,19 +5959,19 @@
         <v>87953</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.024813721769945</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>175</v>
@@ -5980,19 +5980,19 @@
         <v>182959</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02636716231506373</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
     </row>
     <row r="38">
@@ -6009,19 +6009,19 @@
         <v>969347</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>919208</v>
+        <v>917245</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1022530</v>
+        <v>1027367</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2855767101037021</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2708054049382126</v>
+        <v>0.2702270509958374</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3012445716317744</v>
+        <v>0.3026697184635918</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1016</v>
@@ -6030,19 +6030,19 @@
         <v>1094959</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1039959</v>
+        <v>1032907</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1151308</v>
+        <v>1149829</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3089139769969997</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2933972863561582</v>
+        <v>0.2914078286244895</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3248115886970461</v>
+        <v>0.3243941583316483</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1932</v>
@@ -6051,19 +6051,19 @@
         <v>2064306</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1989578</v>
+        <v>1987303</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2145233</v>
+        <v>2146995</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2974979099964791</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.286728431189394</v>
+        <v>0.2864005948393025</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3091607415808596</v>
+        <v>0.3094146639365757</v>
       </c>
     </row>
     <row r="39">
@@ -6080,19 +6080,19 @@
         <v>533571</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1571938985939024</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>486</v>
@@ -6101,19 +6101,19 @@
         <v>514794</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1452357703090898</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>973</v>
@@ -6122,19 +6122,19 @@
         <v>1048365</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1510854181844992</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
     </row>
     <row r="40">
@@ -6399,19 +6399,19 @@
         <v>124748</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>106414</v>
+        <v>107405</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143547</v>
+        <v>143820</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3912487807034993</v>
+        <v>0.3912487807034994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3337479263524959</v>
+        <v>0.3368559074260089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.450210165984372</v>
+        <v>0.4510665225120055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -6420,19 +6420,19 @@
         <v>143956</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>128933</v>
+        <v>128757</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>158018</v>
+        <v>158770</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.455470256012297</v>
+        <v>0.4554702560122969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4079358470549667</v>
+        <v>0.407379431307158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4999608706611456</v>
+        <v>0.5023403146030444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>381</v>
@@ -6441,19 +6441,19 @@
         <v>268704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246014</v>
+        <v>246980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292799</v>
+        <v>294481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4232186836598432</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3874813381199191</v>
+        <v>0.3890022686043751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4611684517932098</v>
+        <v>0.4638186169206573</v>
       </c>
     </row>
     <row r="5">
@@ -6470,19 +6470,19 @@
         <v>6875</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2365</v>
+        <v>2389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17810</v>
+        <v>18769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02156274871141101</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007416324834646162</v>
+        <v>0.007492430065097825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05585937529366155</v>
+        <v>0.05886505417050703</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -6491,19 +6491,19 @@
         <v>7656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3138</v>
+        <v>2827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18022</v>
+        <v>17338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02422437888062761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009928116668776365</v>
+        <v>0.008944668791946091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05702138396129338</v>
+        <v>0.05485643295603308</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -6512,19 +6512,19 @@
         <v>14532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6884</v>
+        <v>7673</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27172</v>
+        <v>28463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02288772696527986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01084200880773776</v>
+        <v>0.01208475584814424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04279696939021595</v>
+        <v>0.04483054111829418</v>
       </c>
     </row>
     <row r="6">
@@ -6541,19 +6541,19 @@
         <v>108844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93270</v>
+        <v>92208</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127551</v>
+        <v>129055</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3413691900441144</v>
+        <v>0.3413691900441145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2925251896103718</v>
+        <v>0.2891923957399958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4000410442452262</v>
+        <v>0.404757040069144</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>168</v>
@@ -6562,19 +6562,19 @@
         <v>96155</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>84078</v>
+        <v>83968</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109566</v>
+        <v>110431</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3042304234112198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2660185538259719</v>
+        <v>0.2656706742796976</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3466606796462043</v>
+        <v>0.3493989719326177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>286</v>
@@ -6583,19 +6583,19 @@
         <v>204999</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185267</v>
+        <v>185428</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>229318</v>
+        <v>228812</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.32288125030958</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.291802024881793</v>
+        <v>0.2920559606412216</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3611838815964415</v>
+        <v>0.3603877143190757</v>
       </c>
     </row>
     <row r="7">
@@ -6612,19 +6612,19 @@
         <v>78378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62835</v>
+        <v>61832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>94314</v>
+        <v>95517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2458192805409752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1970693497381043</v>
+        <v>0.1939239643906053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.295798864063243</v>
+        <v>0.299571240089912</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -6633,19 +6633,19 @@
         <v>68293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55702</v>
+        <v>56744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80810</v>
+        <v>80923</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2160749416958556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1762370461299219</v>
+        <v>0.1795350001971883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2556791989341101</v>
+        <v>0.2560350927679628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -6654,19 +6654,19 @@
         <v>146671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125774</v>
+        <v>126355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169112</v>
+        <v>168499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.231012339065297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1980989998417194</v>
+        <v>0.1990138926127883</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2663570723389375</v>
+        <v>0.2653914547255944</v>
       </c>
     </row>
     <row r="8">
@@ -6687,19 +6687,19 @@
         <v>443839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>420937</v>
+        <v>420936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>462812</v>
+        <v>463460</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8364105636460142</v>
+        <v>0.8364105636460143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7932518888732789</v>
+        <v>0.7932496932500198</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8721661547530987</v>
+        <v>0.8733864192250083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>610</v>
@@ -6708,19 +6708,19 @@
         <v>469180</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454183</v>
+        <v>453307</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>481507</v>
+        <v>483382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.858527517500576</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8310852957105952</v>
+        <v>0.8294822379771523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8810833589975386</v>
+        <v>0.8845155528158241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>928</v>
@@ -6729,19 +6729,19 @@
         <v>913019</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884637</v>
+        <v>887014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>936559</v>
+        <v>935553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8476317373670951</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8212822769506549</v>
+        <v>0.8234895072720314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8694860936225663</v>
+        <v>0.8685519326645423</v>
       </c>
     </row>
     <row r="9">
@@ -6758,19 +6758,19 @@
         <v>11165</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4171</v>
+        <v>4772</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24041</v>
+        <v>26216</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0210405945161225</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007861153656616111</v>
+        <v>0.008993036942291812</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04530560217482427</v>
+        <v>0.0494042320691974</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -6779,19 +6779,19 @@
         <v>5099</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2181</v>
+        <v>2167</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10030</v>
+        <v>9936</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009330458766301996</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003990720290241572</v>
+        <v>0.003964995566361098</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01835306108873484</v>
+        <v>0.01818124458513825</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -6800,19 +6800,19 @@
         <v>16264</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8683</v>
+        <v>9085</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30965</v>
+        <v>28592</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01509938450997732</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008061155334241392</v>
+        <v>0.008434366288374391</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02874711050148375</v>
+        <v>0.02654463271281105</v>
       </c>
     </row>
     <row r="10">
@@ -6829,19 +6829,19 @@
         <v>16976</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9235</v>
+        <v>8568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30956</v>
+        <v>29893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03199070205062445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01740260888273222</v>
+        <v>0.01614649112705805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05833686273094753</v>
+        <v>0.05633348726746364</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -6850,19 +6850,19 @@
         <v>15507</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9612</v>
+        <v>9908</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23647</v>
+        <v>23760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02837572798362802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01758765709362394</v>
+        <v>0.01812994268374103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04327022644541407</v>
+        <v>0.04347769697560535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -6871,19 +6871,19 @@
         <v>32483</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22420</v>
+        <v>22311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45957</v>
+        <v>47386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03015662253543832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02081401166240592</v>
+        <v>0.02071289827592188</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04266544111568741</v>
+        <v>0.04399245174813585</v>
       </c>
     </row>
     <row r="11">
@@ -6900,19 +6900,19 @@
         <v>58667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42875</v>
+        <v>42500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77876</v>
+        <v>77555</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1105581397872387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08079810533719708</v>
+        <v>0.08009125771997036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1467559026075323</v>
+        <v>0.1461520987546376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -6921,19 +6921,19 @@
         <v>56708</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45850</v>
+        <v>45106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70219</v>
+        <v>69376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.103766295749494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08389766905294316</v>
+        <v>0.08253720632058949</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1284901740657055</v>
+        <v>0.1269473724410262</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>125</v>
@@ -6942,19 +6942,19 @@
         <v>115375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95695</v>
+        <v>96111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139064</v>
+        <v>138420</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1071122555874894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08884147692523869</v>
+        <v>0.08922763972654811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1291049295522401</v>
+        <v>0.128506650382736</v>
       </c>
     </row>
     <row r="12">
@@ -6975,19 +6975,19 @@
         <v>223622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>207882</v>
+        <v>205938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238137</v>
+        <v>238300</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7101184710920821</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6601369712091332</v>
+        <v>0.653963012269797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7562111295230005</v>
+        <v>0.7567303849746593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>395</v>
@@ -6996,19 +6996,19 @@
         <v>259747</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>245699</v>
+        <v>243294</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>273690</v>
+        <v>271761</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.731344286985678</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6917911086128417</v>
+        <v>0.6850192965332922</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7706016314291955</v>
+        <v>0.7651703867014198</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>655</v>
@@ -7017,19 +7017,19 @@
         <v>483369</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>461514</v>
+        <v>463474</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>504432</v>
+        <v>503759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7213689786361767</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6887534816007496</v>
+        <v>0.6916775044525711</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7528031028227582</v>
+        <v>0.7517982521896804</v>
       </c>
     </row>
     <row r="13">
@@ -7046,19 +7046,19 @@
         <v>28418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20022</v>
+        <v>19643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40750</v>
+        <v>40033</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09024238539380894</v>
+        <v>0.09024238539380892</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06358022502502893</v>
+        <v>0.0623770455620531</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1294041733894939</v>
+        <v>0.1271257503349529</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -7067,19 +7067,19 @@
         <v>40642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31774</v>
+        <v>31924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51940</v>
+        <v>52318</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1144316698845753</v>
+        <v>0.1144316698845754</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08946289095795125</v>
+        <v>0.0898840332514978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1462414451975229</v>
+        <v>0.1473076959775312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -7088,19 +7088,19 @@
         <v>69060</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55777</v>
+        <v>55753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84101</v>
+        <v>84299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1030636464946236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08324063288618141</v>
+        <v>0.08320405524613472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1255110309951852</v>
+        <v>0.1258060444033028</v>
       </c>
     </row>
     <row r="14">
@@ -7117,19 +7117,19 @@
         <v>48914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37876</v>
+        <v>38528</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61737</v>
+        <v>64599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1553271006877242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1202757977419894</v>
+        <v>0.1223460493175016</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1960490142660585</v>
+        <v>0.2051363521922593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -7138,19 +7138,19 @@
         <v>44734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33987</v>
+        <v>35386</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56242</v>
+        <v>56190</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1259536983952422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09569410553883934</v>
+        <v>0.09963382400483282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1583546252580313</v>
+        <v>0.1582086617275432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -7159,19 +7159,19 @@
         <v>93648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77788</v>
+        <v>78825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110984</v>
+        <v>111941</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.139758055627506</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1160883271100212</v>
+        <v>0.1176367444983077</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1656305054033412</v>
+        <v>0.1670578739258194</v>
       </c>
     </row>
     <row r="15">
@@ -7188,19 +7188,19 @@
         <v>13954</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8220</v>
+        <v>7724</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23021</v>
+        <v>23786</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04431204282638476</v>
+        <v>0.04431204282638475</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02610273635148049</v>
+        <v>0.02452649148484672</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07310248996263068</v>
+        <v>0.07553210320041767</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -7209,19 +7209,19 @@
         <v>10041</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5976</v>
+        <v>5860</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16505</v>
+        <v>17277</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02827034473450436</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01682685109560634</v>
+        <v>0.01649875779457939</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04647154986338058</v>
+        <v>0.04864577124855864</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>29</v>
@@ -7230,19 +7230,19 @@
         <v>23995</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>15782</v>
+        <v>15479</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33646</v>
+        <v>34044</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0358093192416938</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02355265727958298</v>
+        <v>0.02310102549189026</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05021193923479624</v>
+        <v>0.05080696163837956</v>
       </c>
     </row>
     <row r="16">
@@ -7263,19 +7263,19 @@
         <v>158463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132572</v>
+        <v>135673</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>181018</v>
+        <v>184665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4246689591194427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3552817975610804</v>
+        <v>0.3635935869081992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4851150233749922</v>
+        <v>0.4948873039010079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>298</v>
@@ -7284,19 +7284,19 @@
         <v>204872</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184530</v>
+        <v>182937</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224682</v>
+        <v>223820</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4895678360988159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4409589735645369</v>
+        <v>0.4371508966250149</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5369054678868854</v>
+        <v>0.5348475967323368</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>421</v>
@@ -7305,19 +7305,19 @@
         <v>363335</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>330473</v>
+        <v>329890</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>393651</v>
+        <v>394822</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4589765163398468</v>
+        <v>0.4589765163398469</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4174646987424999</v>
+        <v>0.4167276490212289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4972726206988509</v>
+        <v>0.4987517067524925</v>
       </c>
     </row>
     <row r="17">
@@ -7334,19 +7334,19 @@
         <v>36074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25528</v>
+        <v>24739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50524</v>
+        <v>50341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09667564338574726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06841283239578115</v>
+        <v>0.06629888077070516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1353992597057727</v>
+        <v>0.1349108540452902</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -7355,19 +7355,19 @@
         <v>39183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29659</v>
+        <v>29405</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>49785</v>
+        <v>49500</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09363377964982059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07087328937455459</v>
+        <v>0.07026758247305256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1189669314884895</v>
+        <v>0.1182855589771395</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>101</v>
@@ -7376,19 +7376,19 @@
         <v>75257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>60973</v>
+        <v>60774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93181</v>
+        <v>95948</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09506761996478504</v>
+        <v>0.09506761996478505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07702250000989025</v>
+        <v>0.07677229360447259</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1177098461598758</v>
+        <v>0.121204991673142</v>
       </c>
     </row>
     <row r="18">
@@ -7405,19 +7405,19 @@
         <v>162828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138470</v>
+        <v>139030</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>187747</v>
+        <v>190273</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4363660382631321</v>
+        <v>0.436366038263132</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3710900794928967</v>
+        <v>0.3725908280729024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5031470155839699</v>
+        <v>0.5099167639092071</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>206</v>
@@ -7426,19 +7426,19 @@
         <v>151957</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>133275</v>
+        <v>132826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>171747</v>
+        <v>172791</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3631200475323945</v>
+        <v>0.3631200475323946</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3184768453037033</v>
+        <v>0.3174059434419936</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4104123116726743</v>
+        <v>0.4129069299058578</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>326</v>
@@ -7447,19 +7447,19 @@
         <v>314784</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>283793</v>
+        <v>282755</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>345320</v>
+        <v>344643</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3976459380839156</v>
+        <v>0.3976459380839157</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3584970396740173</v>
+        <v>0.3571854772268778</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4362197057078273</v>
+        <v>0.4353642964233114</v>
       </c>
     </row>
     <row r="19">
@@ -7476,19 +7476,19 @@
         <v>15780</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7197</v>
+        <v>7173</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30097</v>
+        <v>28695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04228935923167804</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01928669620641349</v>
+        <v>0.01922434733360647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08065823390234361</v>
+        <v>0.07690113969367739</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -7497,19 +7497,19 @@
         <v>22463</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14233</v>
+        <v>14371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35579</v>
+        <v>33866</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05367833671896904</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03401135717346229</v>
+        <v>0.03434136774217042</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08501945076815126</v>
+        <v>0.080926970048896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -7518,19 +7518,19 @@
         <v>38243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26554</v>
+        <v>26302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55601</v>
+        <v>60713</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04830992561145247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03354394585277875</v>
+        <v>0.03322549293479945</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0702371305584459</v>
+        <v>0.07669454026380616</v>
       </c>
     </row>
     <row r="20">
@@ -7551,19 +7551,19 @@
         <v>201994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196567</v>
+        <v>196435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204493</v>
+        <v>204671</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9821503265471484</v>
+        <v>0.9821503265471485</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9557607622129027</v>
+        <v>0.955122454026493</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9942992013346333</v>
+        <v>0.9951688482027548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>480</v>
@@ -7572,19 +7572,19 @@
         <v>222583</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219226</v>
+        <v>218708</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225261</v>
+        <v>224963</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9741742350058409</v>
+        <v>0.9741742350058408</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9594803275829156</v>
+        <v>0.9572144575862352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9858925369773481</v>
+        <v>0.9845879591428638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>755</v>
@@ -7593,19 +7593,19 @@
         <v>424577</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>418254</v>
+        <v>418276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>428400</v>
+        <v>428316</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9779526622293502</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.963387631865653</v>
+        <v>0.9634380591492628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9867569396304793</v>
+        <v>0.9865638547967259</v>
       </c>
     </row>
     <row r="21">
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1811</v>
+        <v>2214</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001925589477396045</v>
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.007925928741639001</v>
+        <v>0.009688633647007176</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2571</v>
+        <v>2486</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001013400886653844</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.005922214735553758</v>
+        <v>0.005726272978460681</v>
       </c>
     </row>
     <row r="22">
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3764</v>
+        <v>4452</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003541210998176644</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.018302861118599</v>
+        <v>0.0216447579818198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -7706,19 +7706,19 @@
         <v>4581</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2341</v>
+        <v>2527</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7781</v>
+        <v>8055</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02004899656197103</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01024488967474819</v>
+        <v>0.01105787151991586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03405683253533977</v>
+        <v>0.03525311545230779</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -7727,19 +7727,19 @@
         <v>5309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2902</v>
+        <v>2857</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9437</v>
+        <v>9172</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01222894258552579</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00668427663851295</v>
+        <v>0.006580412567038931</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02173721183694208</v>
+        <v>0.0211260438623084</v>
       </c>
     </row>
     <row r="23">
@@ -7756,19 +7756,19 @@
         <v>2943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7983</v>
+        <v>7975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0143084624546749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.003514616147687816</v>
+        <v>0.003563117812270948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03881341912830864</v>
+        <v>0.03877478435446926</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2697</v>
+        <v>3004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00385117895479209</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01180235024457573</v>
+        <v>0.01314802798130393</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -7798,19 +7798,19 @@
         <v>3823</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1315</v>
+        <v>1334</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9764</v>
+        <v>9224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008804994298470269</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00302936779467925</v>
+        <v>0.003072903526235086</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02248892941457548</v>
+        <v>0.02124512049806654</v>
       </c>
     </row>
     <row r="24">
@@ -7831,19 +7831,19 @@
         <v>152390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>136577</v>
+        <v>137040</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>165795</v>
+        <v>166875</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5629342729905968</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5045204769371139</v>
+        <v>0.5062310796012216</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6124510422846324</v>
+        <v>0.6164403571706767</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>271</v>
@@ -7852,19 +7852,19 @@
         <v>143110</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129911</v>
+        <v>129032</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155845</v>
+        <v>155080</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5425978701599012</v>
+        <v>0.542597870159901</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4925539399212455</v>
+        <v>0.4892215513354039</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5908822679777521</v>
+        <v>0.5879793690528752</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>489</v>
@@ -7873,19 +7873,19 @@
         <v>295500</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>277150</v>
+        <v>274862</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>315214</v>
+        <v>314674</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5528984245284948</v>
+        <v>0.5528984245284947</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5185639556694492</v>
+        <v>0.5142819837919479</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.589783064760305</v>
+        <v>0.5887741767399305</v>
       </c>
     </row>
     <row r="25">
@@ -7902,19 +7902,19 @@
         <v>72165</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>60627</v>
+        <v>59516</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87975</v>
+        <v>87051</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2665790986045991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2239598403619669</v>
+        <v>0.2198549628989506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3249815888244368</v>
+        <v>0.3215672564011564</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -7923,19 +7923,19 @@
         <v>79902</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>69036</v>
+        <v>68304</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92926</v>
+        <v>92502</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3029449701737686</v>
+        <v>0.3029449701737685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2617496296524636</v>
+        <v>0.2589742892110315</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.352326365733865</v>
+        <v>0.3507172861073603</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>216</v>
@@ -7944,19 +7944,19 @@
         <v>152067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134102</v>
+        <v>133907</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>169930</v>
+        <v>171599</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2845253587814274</v>
+        <v>0.2845253587814275</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.250911866880027</v>
+        <v>0.2505478525164037</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3179489663619562</v>
+        <v>0.3210725006853239</v>
       </c>
     </row>
     <row r="26">
@@ -7973,19 +7973,19 @@
         <v>40562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>30467</v>
+        <v>30922</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51269</v>
+        <v>51257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1498384933149974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1125445696651085</v>
+        <v>0.1142282284973104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1893906278927159</v>
+        <v>0.1893449056282846</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>56</v>
@@ -7994,19 +7994,19 @@
         <v>35250</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26710</v>
+        <v>26920</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45654</v>
+        <v>45349</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1336489728176906</v>
+        <v>0.1336489728176905</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1012684278253706</v>
+        <v>0.1020671754949752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1730960839770052</v>
+        <v>0.1719406011409647</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -8015,19 +8015,19 @@
         <v>75812</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62541</v>
+        <v>64301</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>89599</v>
+        <v>91541</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1418490973663772</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1170181069206121</v>
+        <v>0.1203112663998472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1676456207063332</v>
+        <v>0.1712792937803849</v>
       </c>
     </row>
     <row r="27">
@@ -8044,19 +8044,19 @@
         <v>5590</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1747</v>
+        <v>2266</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11838</v>
+        <v>13578</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02064813508980664</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.006455299807591837</v>
+        <v>0.008371346974870977</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04373056502185713</v>
+        <v>0.05015655621992524</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -8065,19 +8065,19 @@
         <v>5488</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2522</v>
+        <v>2804</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>10225</v>
+        <v>10604</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.02080818684863974</v>
+        <v>0.02080818684863973</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.009562499141679216</v>
+        <v>0.01063257822095701</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03876646472471217</v>
+        <v>0.04020536667172807</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>16</v>
@@ -8086,19 +8086,19 @@
         <v>11078</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6521</v>
+        <v>6614</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18794</v>
+        <v>18554</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02072711932370062</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01220142444776977</v>
+        <v>0.01237441730986222</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03516487057622272</v>
+        <v>0.0347158677927668</v>
       </c>
     </row>
     <row r="28">
@@ -8119,19 +8119,19 @@
         <v>221548</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>192961</v>
+        <v>192845</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>251084</v>
+        <v>251432</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3110121284529234</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2708809426601633</v>
+        <v>0.2707187024289193</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3524756312661688</v>
+        <v>0.352963839836384</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>291</v>
@@ -8140,19 +8140,19 @@
         <v>231934</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>208957</v>
+        <v>207469</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>256177</v>
+        <v>255438</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3020437417495695</v>
+        <v>0.3020437417495694</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2721214580311058</v>
+        <v>0.2701838232935147</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3336154846918298</v>
+        <v>0.3326530810954179</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>470</v>
@@ -8161,19 +8161,19 @@
         <v>453482</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>412066</v>
+        <v>417731</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>489355</v>
+        <v>492363</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3063596921485562</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2783805430585714</v>
+        <v>0.2822076256966169</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3305944568344538</v>
+        <v>0.3326268625517539</v>
       </c>
     </row>
     <row r="29">
@@ -8190,19 +8190,19 @@
         <v>46233</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33109</v>
+        <v>34716</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61180</v>
+        <v>60989</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06490209984071021</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04647899075727696</v>
+        <v>0.04873445929091136</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08588523178678334</v>
+        <v>0.08561655037070633</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>58</v>
@@ -8211,19 +8211,19 @@
         <v>44395</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34348</v>
+        <v>34186</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>56747</v>
+        <v>56296</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05781444156278877</v>
+        <v>0.05781444156278876</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04473092482398552</v>
+        <v>0.04451938761222381</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07390033434779263</v>
+        <v>0.07331398657869445</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>101</v>
@@ -8232,19 +8232,19 @@
         <v>90627</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73218</v>
+        <v>74292</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>108583</v>
+        <v>108797</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06122530937929777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04946383109213248</v>
+        <v>0.05018927079151678</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07335572617520954</v>
+        <v>0.07350028304242136</v>
       </c>
     </row>
     <row r="30">
@@ -8261,19 +8261,19 @@
         <v>204319</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>177344</v>
+        <v>177957</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>233515</v>
+        <v>235249</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2868252583259034</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2489575479905743</v>
+        <v>0.2498190329045103</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3278110574068664</v>
+        <v>0.3302465259085879</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>271</v>
@@ -8282,19 +8282,19 @@
         <v>224314</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200858</v>
+        <v>200976</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>249495</v>
+        <v>247669</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2921206486606222</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2615740281642292</v>
+        <v>0.2617272825635663</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3249130461335065</v>
+        <v>0.3225356636405308</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>444</v>
@@ -8303,19 +8303,19 @@
         <v>428633</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>394476</v>
+        <v>393696</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>465975</v>
+        <v>467392</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2895722926648472</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2664971881717825</v>
+        <v>0.2659698749407465</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3147993873509788</v>
+        <v>0.3157570391435379</v>
       </c>
     </row>
     <row r="31">
@@ -8332,19 +8332,19 @@
         <v>240246</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>210945</v>
+        <v>215418</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>270393</v>
+        <v>274340</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3372605133804629</v>
+        <v>0.3372605133804628</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2961276099636049</v>
+        <v>0.3024073407369312</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.379581002045272</v>
+        <v>0.3851227250716481</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>334</v>
@@ -8353,19 +8353,19 @@
         <v>267239</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>242120</v>
+        <v>241953</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>292298</v>
+        <v>292094</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3480211680270196</v>
+        <v>0.3480211680270195</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3153083727083296</v>
+        <v>0.3150919120137223</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3806543960454086</v>
+        <v>0.3803894844273512</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>533</v>
@@ -8374,19 +8374,19 @@
         <v>507485</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>468893</v>
+        <v>468616</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>549319</v>
+        <v>549952</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3428427058072986</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3167708492793256</v>
+        <v>0.3165838309180706</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3711045060759646</v>
+        <v>0.3715325206370904</v>
       </c>
     </row>
     <row r="32">
@@ -8407,19 +8407,19 @@
         <v>725830</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>706302</v>
+        <v>706061</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>741834</v>
+        <v>742017</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9121687902363237</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8876270116112648</v>
+        <v>0.8873246105911997</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9322813886244269</v>
+        <v>0.9325113335447935</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>955</v>
@@ -8428,19 +8428,19 @@
         <v>747815</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>732251</v>
+        <v>733144</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>762557</v>
+        <v>763157</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.89953910093027</v>
+        <v>0.8995391009302702</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8808182058912738</v>
+        <v>0.881891822139655</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9172719172985759</v>
+        <v>0.9179942807580298</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1652</v>
@@ -8449,19 +8449,19 @@
         <v>1473645</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1448664</v>
+        <v>1448984</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1494636</v>
+        <v>1494811</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9057157269189536</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8903621508597077</v>
+        <v>0.8905590170172284</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9186170353099882</v>
+        <v>0.9187245365368005</v>
       </c>
     </row>
     <row r="33">
@@ -8478,19 +8478,19 @@
         <v>6150</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2448</v>
+        <v>2277</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>13956</v>
+        <v>14195</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007728353827657071</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003076833871281144</v>
+        <v>0.002861468105394093</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01753830398031102</v>
+        <v>0.01783880451832029</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>15</v>
@@ -8499,19 +8499,19 @@
         <v>10972</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6081</v>
+        <v>6212</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>17190</v>
+        <v>17516</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01319751588612803</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007314242422439048</v>
+        <v>0.007472952425674607</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02067766990981064</v>
+        <v>0.02107022087626381</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>21</v>
@@ -8520,19 +8520,19 @@
         <v>17121</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10823</v>
+        <v>10623</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>25878</v>
+        <v>26230</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01052278908263638</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00665182218575337</v>
+        <v>0.006529210450827041</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01590491566611805</v>
+        <v>0.0161209422417263</v>
       </c>
     </row>
     <row r="34">
@@ -8549,19 +8549,19 @@
         <v>45020</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>31953</v>
+        <v>31892</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>62164</v>
+        <v>61606</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05657814575219281</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0401561173986741</v>
+        <v>0.0400800951607409</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07812287737347036</v>
+        <v>0.07742158004211469</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>64</v>
@@ -8570,19 +8570,19 @@
         <v>47527</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>37087</v>
+        <v>37251</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>58864</v>
+        <v>59945</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05717007807530361</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04461136807168692</v>
+        <v>0.04480915093984745</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07080651152313036</v>
+        <v>0.07210674197386102</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>105</v>
@@ -8591,19 +8591,19 @@
         <v>92548</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>75778</v>
+        <v>76665</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>110737</v>
+        <v>112941</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0568805899903738</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04657401832949368</v>
+        <v>0.04711926747321279</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06805997429475723</v>
+        <v>0.06941446775694564</v>
       </c>
     </row>
     <row r="35">
@@ -8620,19 +8620,19 @@
         <v>18719</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10767</v>
+        <v>10806</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29791</v>
+        <v>30479</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02352471018382649</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01353160467742242</v>
+        <v>0.01358045614633236</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03743848781646855</v>
+        <v>0.03830322724868913</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>28</v>
@@ -8641,19 +8641,19 @@
         <v>25017</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>15673</v>
+        <v>16907</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>36509</v>
+        <v>35845</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03009330510829828</v>
+        <v>0.03009330510829827</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01885288274973315</v>
+        <v>0.02033695765476837</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04391649716198801</v>
+        <v>0.04311719442809826</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>44</v>
@@ -8662,19 +8662,19 @@
         <v>43737</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>30785</v>
+        <v>31136</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>60199</v>
+        <v>60144</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02688089400803627</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01892074033369772</v>
+        <v>0.01913650655913248</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0369985874862235</v>
+        <v>0.03696483251643707</v>
       </c>
     </row>
     <row r="36">
@@ -8695,19 +8695,19 @@
         <v>2252433</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2184949</v>
+        <v>2188388</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2313506</v>
+        <v>2313496</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.639535895173044</v>
+        <v>0.6395358951730439</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6203749423489878</v>
+        <v>0.6213513957312661</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6568764456402475</v>
+        <v>0.6568735835222312</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3549</v>
@@ -8716,19 +8716,19 @@
         <v>2423199</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2372599</v>
+        <v>2370551</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2474171</v>
+        <v>2473728</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6500620497569312</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.6364878406813426</v>
+        <v>0.6359383427220725</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6637361293629623</v>
+        <v>0.6636171567885694</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5751</v>
@@ -8737,19 +8737,19 @@
         <v>4675633</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4583776</v>
+        <v>4593037</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4764648</v>
+        <v>4764516</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.6449482783181421</v>
+        <v>0.6449482783181419</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6322777692923882</v>
+        <v>0.6335552018935728</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6572268927118184</v>
+        <v>0.6572087143094787</v>
       </c>
     </row>
     <row r="37">
@@ -8766,19 +8766,19 @@
         <v>207080</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>332</v>
@@ -8787,19 +8787,19 @@
         <v>228289</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0612421484989019</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>556</v>
@@ -8808,19 +8808,19 @@
         <v>435368</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="38">
@@ -8837,19 +8837,19 @@
         <v>628191</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>576266</v>
+        <v>577731</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>682656</v>
+        <v>685285</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1783629462472751</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1636197280196531</v>
+        <v>0.1640358007449525</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.193827420088655</v>
+        <v>0.1945736950907113</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>862</v>
@@ -8858,19 +8858,19 @@
         <v>620026</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>579523</v>
+        <v>579399</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>663790</v>
+        <v>661589</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1663318639334835</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1554664413896637</v>
+        <v>0.1554331194457271</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1780722872836013</v>
+        <v>0.1774817292735832</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1435</v>
@@ -8879,19 +8879,19 @@
         <v>1248217</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1185079</v>
+        <v>1181647</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1323363</v>
+        <v>1316753</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1721767529310444</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1634675967132323</v>
+        <v>0.1629943084006734</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1825422725923883</v>
+        <v>0.1816304926372919</v>
       </c>
     </row>
     <row r="39">
@@ -8908,19 +8908,19 @@
         <v>434277</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1233048376248494</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>612</v>
@@ -8929,19 +8929,19 @@
         <v>456129</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>981</v>
@@ -8950,19 +8950,19 @@
         <v>890406</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1228210417376778</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="40">
